--- a/me264.xlsx
+++ b/me264.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
   <si>
     <t>contorno ref</t>
   </si>
@@ -36,6 +37,51 @@
   </si>
   <si>
     <t>motor 1 ref</t>
+  </si>
+  <si>
+    <t>motor 2 ref</t>
+  </si>
+  <si>
+    <t>detalhe motor 1 1</t>
+  </si>
+  <si>
+    <t>detalhe motor 1 2</t>
+  </si>
+  <si>
+    <t>detalhe motor 1 3</t>
+  </si>
+  <si>
+    <t>detalhe motor 1 4</t>
+  </si>
+  <si>
+    <t>detalhe motor 2 1</t>
+  </si>
+  <si>
+    <t>detalhe motor 2 2</t>
+  </si>
+  <si>
+    <t>detalhe motor 2 3</t>
+  </si>
+  <si>
+    <t>detalhe motor 2 4</t>
+  </si>
+  <si>
+    <t>cockpit ref</t>
+  </si>
+  <si>
+    <t>cockpit detalhe</t>
+  </si>
+  <si>
+    <t>detalhe asa</t>
+  </si>
+  <si>
+    <t>contorno msm</t>
+  </si>
+  <si>
+    <t>motor 1 msm</t>
+  </si>
+  <si>
+    <t>motor 2 msm</t>
   </si>
 </sst>
 </file>
@@ -353,186 +399,1319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="str">
+        <f>E1</f>
+        <v>detalhe motor 1 1</v>
+      </c>
+      <c r="S1" t="str">
+        <f>H1</f>
+        <v>cockpit ref</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="B2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>2.5</v>
+      </c>
+      <c r="F2">
+        <v>6.2</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>9.5</v>
+      </c>
+      <c r="L2">
+        <f>A2/23.6</f>
+        <v>6.7796610169491525E-2</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:T2" si="0">B2/23.6</f>
+        <v>0.29661016949152541</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>0.1059322033898305</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>0.26271186440677963</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>0.40254237288135591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="B3">
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+      <c r="E3">
+        <v>2.8</v>
+      </c>
+      <c r="F3">
+        <v>6.2</v>
+      </c>
+      <c r="H3">
+        <v>0.9</v>
+      </c>
+      <c r="I3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L11" si="1">A3/23.6</f>
+        <v>6.7796610169491525E-2</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M11" si="2">B3/23.6</f>
+        <v>0.19067796610169491</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P37" si="3">E3/23.6</f>
+        <v>0.11864406779661016</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q37" si="4">F3/23.6</f>
+        <v>0.26271186440677963</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S41" si="5">H3/23.6</f>
+        <v>3.8135593220338979E-2</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T41" si="6">I3/23.6</f>
+        <v>0.38983050847457623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1.5</v>
+        <v>23.6</v>
       </c>
       <c r="B4">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1.2</v>
+      </c>
+      <c r="I4">
+        <v>8.5</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="5"/>
+        <v>5.084745762711864E-2</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="6"/>
+        <v>0.36016949152542371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>23.6</v>
+      </c>
+      <c r="B5">
+        <v>-1.2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>1.6</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>-5.084745762711864E-2</v>
+      </c>
+      <c r="P5" t="str">
+        <f>E5</f>
+        <v>detalhe motor 1 2</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="5"/>
+        <v>6.7796610169491525E-2</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="6"/>
+        <v>0.29661016949152541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.6</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>6.2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>6.7796610169491525E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>-4.2372881355932202E-2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>0.1271186440677966</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>0.26271186440677963</v>
+      </c>
+      <c r="S6" t="str">
+        <f>H6</f>
+        <v>cor</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.6</v>
+      </c>
+      <c r="B7">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="E7">
+        <v>3.3</v>
+      </c>
+      <c r="F7">
+        <v>6.2</v>
+      </c>
+      <c r="H7">
+        <v>200</v>
+      </c>
+      <c r="I7">
+        <v>200</v>
+      </c>
+      <c r="J7">
+        <v>200</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>6.7796610169491525E-2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>-9.3220338983050849E-2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>0.13983050847457626</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>0.26271186440677963</v>
+      </c>
+      <c r="S7">
+        <f>H7/255</f>
+        <v>0.78431372549019607</v>
+      </c>
+      <c r="T7">
+        <f>I7/255</f>
+        <v>0.78431372549019607</v>
+      </c>
+      <c r="U7">
+        <f>J7/255</f>
+        <v>0.78431372549019607</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.2</v>
+      </c>
+      <c r="B8">
+        <v>-7</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>5.084745762711864E-2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>-0.29661016949152541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.9</v>
+      </c>
+      <c r="B9">
+        <v>-10.7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>3.8135593220338979E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>-0.45338983050847453</v>
+      </c>
+      <c r="P9" t="str">
+        <f>E9</f>
+        <v>detalhe motor 1 3</v>
+      </c>
+      <c r="S9" t="str">
+        <f>H9</f>
+        <v>cockpit detalhe</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4.5</v>
+      </c>
+      <c r="B10">
+        <v>-11.8</v>
+      </c>
+      <c r="E10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F10">
+        <v>6.2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>0.19067796610169491</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>-0.5</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>0.21610169491525422</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>0.26271186440677963</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="6"/>
+        <v>0.38983050847457623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4.8</v>
+      </c>
+      <c r="B11">
+        <v>-13.3</v>
+      </c>
+      <c r="E11">
+        <v>5.4</v>
+      </c>
+      <c r="F11">
+        <v>6.2</v>
+      </c>
+      <c r="H11">
+        <v>0.9</v>
+      </c>
+      <c r="I11">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>0.20338983050847456</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>-0.56355932203389825</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>0.2288135593220339</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>0.26271186440677963</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="5"/>
+        <v>3.8135593220338979E-2</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="6"/>
+        <v>0.38983050847457623</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>-13.3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="L12">
+        <v>-0.20338983050847456</v>
+      </c>
+      <c r="M12">
+        <v>-0.56355932203389825</v>
+      </c>
+      <c r="S12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13">
+        <v>-0.19067796610169491</v>
+      </c>
+      <c r="M13">
+        <v>-0.5</v>
+      </c>
+      <c r="P13" t="str">
+        <f>E13</f>
+        <v>detalhe motor 1 4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>5.6</v>
+      </c>
+      <c r="F14">
+        <v>6.2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14">
+        <v>-3.8135593220338979E-2</v>
+      </c>
+      <c r="M14">
+        <v>-0.45338983050847453</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>0.23728813559322032</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>0.26271186440677963</v>
+      </c>
+      <c r="S14" t="str">
+        <f>H14</f>
+        <v>cockpit detalhe</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>5.9</v>
+      </c>
+      <c r="F15">
+        <v>6.2</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>8.5</v>
+      </c>
+      <c r="L15">
+        <v>-5.084745762711864E-2</v>
+      </c>
+      <c r="M15">
+        <v>-0.29661016949152541</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>0.26271186440677963</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="6"/>
+        <v>0.36016949152542371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>1.2</v>
+      </c>
+      <c r="I16">
+        <v>8.5</v>
+      </c>
+      <c r="L16">
+        <v>-6.7796610169491525E-2</v>
+      </c>
+      <c r="M16">
+        <v>-9.3220338983050849E-2</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="5"/>
+        <v>5.084745762711864E-2</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="6"/>
+        <v>0.36016949152542371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2.9</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="H17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>30</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>30</v>
-      </c>
-      <c r="B8">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="L17">
+        <v>-6.7796610169491525E-2</v>
+      </c>
+      <c r="M17">
+        <v>-4.2372881355932202E-2</v>
+      </c>
+      <c r="P17" t="str">
+        <f>E17</f>
+        <v>detalhe motor 2 1</v>
+      </c>
+      <c r="S17" t="s">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s">
         <v>2</v>
       </c>
-      <c r="B9">
-        <v>-1.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1.7</v>
-      </c>
-      <c r="B11">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>-13.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5.8</v>
-      </c>
-      <c r="B13">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>-17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>-17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2.9</v>
+      </c>
+      <c r="B18">
+        <v>6.2</v>
+      </c>
+      <c r="E18">
+        <v>6.8</v>
+      </c>
+      <c r="F18">
+        <v>5.4</v>
+      </c>
+      <c r="L18">
+        <v>-1</v>
+      </c>
+      <c r="M18">
+        <v>-5.084745762711864E-2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>0.28813559322033894</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="4"/>
+        <v>0.2288135593220339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3.2</v>
+      </c>
+      <c r="B19">
+        <v>6.2</v>
+      </c>
+      <c r="E19">
+        <v>6.5</v>
+      </c>
+      <c r="F19">
+        <v>5.4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19">
+        <v>-1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="3"/>
+        <v>0.27542372881355931</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="4"/>
+        <v>0.2288135593220339</v>
+      </c>
+      <c r="S19" t="str">
+        <f>H19</f>
+        <v>cockpit detalhe</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3.8</v>
       </c>
       <c r="B20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7.1</v>
+      </c>
+      <c r="H20">
+        <v>1.4</v>
+      </c>
+      <c r="I20">
+        <v>7.8</v>
+      </c>
+      <c r="L20">
+        <v>-6.7796610169491525E-2</v>
+      </c>
+      <c r="M20">
+        <v>0.19067796610169491</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="5"/>
+        <v>5.9322033898305079E-2</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="6"/>
+        <v>0.33050847457627114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>3.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6.2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>7.8</v>
+      </c>
+      <c r="L21">
+        <v>-6.7796610169491525E-2</v>
+      </c>
+      <c r="M21">
+        <v>0.29661016949152541</v>
+      </c>
+      <c r="P21" t="str">
+        <f>E21</f>
+        <v>detalhe motor 2 2</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="6"/>
+        <v>0.33050847457627114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.7</v>
+      </c>
+      <c r="B22">
+        <v>6.2</v>
+      </c>
+      <c r="E22">
+        <v>6.3</v>
+      </c>
+      <c r="F22">
+        <v>5.4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="3"/>
+        <v>0.26694915254237284</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="4"/>
+        <v>0.2288135593220339</v>
+      </c>
+      <c r="S22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>4.7</v>
+      </c>
+      <c r="B23">
+        <v>3.6</v>
+      </c>
+      <c r="E23">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>5.4</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="3"/>
+        <v>0.25423728813559321</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="4"/>
+        <v>0.2288135593220339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" t="s">
+        <v>17</v>
+      </c>
+      <c r="S24" t="str">
+        <f>H24</f>
+        <v>cockpit detalhe</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>6</v>
+        <v>79</v>
+      </c>
+      <c r="B25">
+        <v>78</v>
+      </c>
+      <c r="C25">
+        <v>68</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>9.5</v>
+      </c>
+      <c r="L25">
+        <v>0.12288135593220338</v>
+      </c>
+      <c r="M25">
+        <v>0.16949152542372881</v>
+      </c>
+      <c r="P25" t="str">
+        <f>E25</f>
+        <v>detalhe motor 2 3</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="6"/>
+        <v>0.40254237288135591</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>9.4</v>
+      </c>
+      <c r="F26">
+        <v>5.4</v>
+      </c>
+      <c r="H26">
+        <v>0.3</v>
+      </c>
+      <c r="I26">
+        <v>8.5</v>
+      </c>
+      <c r="L26">
+        <v>0.12288135593220338</v>
+      </c>
+      <c r="M26">
+        <v>0.26271186440677963</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="3"/>
+        <v>0.39830508474576271</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="4"/>
+        <v>0.2288135593220339</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="5"/>
+        <v>1.271186440677966E-2</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="6"/>
+        <v>0.36016949152542371</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F27">
+        <v>5.4</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.13559322033898305</v>
+      </c>
+      <c r="M27">
+        <v>0.26271186440677963</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="3"/>
+        <v>0.41101694915254233</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="4"/>
+        <v>0.2288135593220339</v>
+      </c>
+      <c r="S27" t="s">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>0.16101694915254236</v>
+      </c>
+      <c r="M28">
+        <v>0.30084745762711862</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>7.2</v>
+      </c>
+      <c r="B29">
+        <v>3.2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29">
+        <v>0.1864406779661017</v>
+      </c>
+      <c r="M29">
+        <v>0.26271186440677963</v>
+      </c>
+      <c r="P29" t="str">
+        <f>E29</f>
+        <v>detalhe motor 2 4</v>
+      </c>
+      <c r="S29" t="str">
+        <f>H29</f>
+        <v>cockpit detalhe</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7.2</v>
+      </c>
+      <c r="B30">
+        <v>5.4</v>
+      </c>
+      <c r="E30">
+        <v>9.9</v>
+      </c>
+      <c r="F30">
+        <v>5.4</v>
+      </c>
+      <c r="H30">
+        <v>0.3</v>
+      </c>
+      <c r="I30">
+        <v>8.5</v>
+      </c>
+      <c r="L30">
+        <v>0.19915254237288135</v>
+      </c>
+      <c r="M30">
+        <v>0.26271186440677963</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="3"/>
+        <v>0.41949152542372881</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="4"/>
+        <v>0.2288135593220339</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="5"/>
+        <v>1.271186440677966E-2</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="6"/>
+        <v>0.36016949152542371</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>7.5</v>
+      </c>
+      <c r="B31">
+        <v>5.4</v>
+      </c>
+      <c r="E31">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F31">
+        <v>5.4</v>
+      </c>
+      <c r="H31">
+        <v>0.5</v>
+      </c>
+      <c r="I31">
+        <v>7</v>
+      </c>
+      <c r="L31">
+        <v>0.19915254237288135</v>
+      </c>
+      <c r="M31">
+        <v>0.15254237288135591</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="3"/>
+        <v>0.43220338983050843</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="4"/>
+        <v>0.2288135593220339</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="5"/>
+        <v>2.1186440677966101E-2</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="6"/>
+        <v>0.29661016949152541</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>8.1</v>
+      </c>
+      <c r="B32">
+        <v>6.3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1</v>
+      </c>
+      <c r="S32" t="s">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="B33">
+        <v>5.4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.30980392156862746</v>
+      </c>
+      <c r="M33">
+        <v>0.30588235294117649</v>
+      </c>
+      <c r="N33">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="P33" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>5.4</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="S34" t="str">
+        <f>H34</f>
+        <v>cockpit detalhe</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>2.8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>9.5</v>
+      </c>
+      <c r="P35" t="str">
+        <f>E35</f>
+        <v>detalhe asa</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="6"/>
+        <v>0.40254237288135591</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>-13.2</v>
+      </c>
+      <c r="H36">
+        <v>0.6</v>
+      </c>
+      <c r="I36">
+        <v>8.1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>18</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="4"/>
+        <v>-0.55932203389830504</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="5"/>
+        <v>2.542372881355932E-2</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="6"/>
+        <v>0.34322033898305082</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>79</v>
+      </c>
+      <c r="B37">
+        <v>78</v>
+      </c>
+      <c r="C37">
+        <v>68</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>-10.4</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>0.30508474576271183</v>
+      </c>
+      <c r="M37">
+        <v>0.13559322033898305</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="4"/>
+        <v>-0.44067796610169491</v>
+      </c>
+      <c r="S37" t="s">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>0.30508474576271183</v>
+      </c>
+      <c r="M38">
+        <v>0.2288135593220339</v>
+      </c>
+      <c r="P38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39">
+        <v>0.31779661016949151</v>
+      </c>
+      <c r="M39">
+        <v>0.2288135593220339</v>
+      </c>
+      <c r="S39" t="str">
+        <f>H39</f>
+        <v>cockpit detalhe</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>0.6</v>
+      </c>
+      <c r="I40">
+        <v>8.1</v>
+      </c>
+      <c r="L40">
+        <v>0.34322033898305082</v>
+      </c>
+      <c r="M40">
+        <v>0.26694915254237284</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="5"/>
+        <v>2.542372881355932E-2</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="6"/>
+        <v>0.34322033898305082</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>7</v>
+      </c>
+      <c r="L41">
+        <v>0.36864406779661013</v>
+      </c>
+      <c r="M41">
+        <v>0.2288135593220339</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="5"/>
+        <v>4.2372881355932202E-2</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="6"/>
+        <v>0.29661016949152541</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>0.38135593220338981</v>
+      </c>
+      <c r="M42">
+        <v>0.2288135593220339</v>
+      </c>
+      <c r="S42" t="str">
+        <f>H42</f>
+        <v>cor</v>
+      </c>
+      <c r="T42" t="str">
+        <f>I42</f>
+        <v>preto</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <v>0.38135593220338981</v>
+      </c>
+      <c r="M43">
+        <v>0.11864406779661016</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <v>0.30980392156862746</v>
+      </c>
+      <c r="M45">
+        <v>0.30588235294117649</v>
+      </c>
+      <c r="N45">
+        <v>0.26666666666666666</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="L13:N22">
+    <sortCondition descending="1" ref="N13:N22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/me264.xlsx
+++ b/me264.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CEFET\8o Periodo\Computacao Grafica\CG-Tp1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Visual Studio 2013\Projects\CG-Tp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
   <si>
     <t>contorno ref</t>
   </si>
@@ -83,6 +82,30 @@
   <si>
     <t>motor 2 msm</t>
   </si>
+  <si>
+    <t>contorno - rabo</t>
+  </si>
+  <si>
+    <t>contorno - cauda</t>
+  </si>
+  <si>
+    <t>contorno - asa esq</t>
+  </si>
+  <si>
+    <t>contorno - asa dir</t>
+  </si>
+  <si>
+    <t>contorno - tronco asa</t>
+  </si>
+  <si>
+    <t>contorno - acima asa</t>
+  </si>
+  <si>
+    <t>cockpit - dir</t>
+  </si>
+  <si>
+    <t>cockpit - esq</t>
+  </si>
 </sst>
 </file>
 
@@ -136,10 +159,1016 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.1178915135608004E-3"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.405555555555556E-2"/>
+          <c:y val="0.19721055701370663"/>
+          <c:w val="0.90349300087489059"/>
+          <c:h val="0.77736111111111106"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>6.7796610169491525E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7796610169491525E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7796610169491525E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7796610169491525E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.084745762711864E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8135593220338979E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19067796610169491</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20338983050847456</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.20338983050847456</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.19067796610169491</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.8135593220338979E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5.084745762711864E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-6.7796610169491525E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-6.7796610169491525E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6.7796610169491525E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-6.7796610169491525E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.29661016949152541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19067796610169491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.084745762711864E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.2372881355932202E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.3220338983050849E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.29661016949152541</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.45338983050847453</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.56355932203389825</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.56355932203389825</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.45338983050847453</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.29661016949152541</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9.3220338983050849E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.2372881355932202E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-5.084745762711864E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19067796610169491</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.29661016949152541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="285071968"/>
+        <c:axId val="285077456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="285071968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285077456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="285077456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285071968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -177,7 +1206,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -249,7 +1278,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -399,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U45"/>
+  <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P67" sqref="P67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,10 +2737,756 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3.8135593220338979E-2</v>
+      </c>
+      <c r="B51">
+        <v>-0.45338983050847453</v>
+      </c>
+      <c r="C51">
+        <f>10000*A51</f>
+        <v>381.35593220338978</v>
+      </c>
+      <c r="D51">
+        <f>10000*B51</f>
+        <v>-4533.8983050847455</v>
+      </c>
+      <c r="F51">
+        <v>-6.7796610169491525E-2</v>
+      </c>
+      <c r="G51">
+        <v>-4.2372881355932202E-2</v>
+      </c>
+      <c r="H51">
+        <f>10000*F51</f>
+        <v>-677.96610169491521</v>
+      </c>
+      <c r="I51">
+        <f>10000*G51</f>
+        <v>-423.72881355932202</v>
+      </c>
+      <c r="K51">
+        <v>-6.7796610169491525E-2</v>
+      </c>
+      <c r="L51">
+        <v>0.19067796610169491</v>
+      </c>
+      <c r="M51">
+        <f>10000*K51</f>
+        <v>-677.96610169491521</v>
+      </c>
+      <c r="N51">
+        <f>10000*L51</f>
+        <v>1906.7796610169491</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0.19067796610169491</v>
+      </c>
+      <c r="B52">
+        <v>-0.5</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:C57" si="7">10000*A52</f>
+        <v>1906.7796610169491</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ref="D52:D57" si="8">10000*B52</f>
+        <v>-5000</v>
+      </c>
+      <c r="F52">
+        <v>-1</v>
+      </c>
+      <c r="G52">
+        <v>-5.084745762711864E-2</v>
+      </c>
+      <c r="H52">
+        <f t="shared" ref="H52:H55" si="9">10000*F52</f>
+        <v>-10000</v>
+      </c>
+      <c r="I52">
+        <f t="shared" ref="I52:I55" si="10">10000*G52</f>
+        <v>-508.47457627118638</v>
+      </c>
+      <c r="K52">
+        <v>-6.7796610169491525E-2</v>
+      </c>
+      <c r="L52">
+        <v>0.29661016949152541</v>
+      </c>
+      <c r="M52">
+        <f t="shared" ref="M52:M55" si="11">10000*K52</f>
+        <v>-677.96610169491521</v>
+      </c>
+      <c r="N52">
+        <f t="shared" ref="N52:N55" si="12">10000*L52</f>
+        <v>2966.101694915254</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0.20338983050847456</v>
+      </c>
+      <c r="B53">
+        <v>-0.56355932203389825</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="7"/>
+        <v>2033.8983050847455</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="8"/>
+        <v>-5635.5932203389821</v>
+      </c>
+      <c r="F53">
+        <v>-1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="9"/>
+        <v>-10000</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>6.7796610169491497E-2</v>
+      </c>
+      <c r="L53">
+        <v>0.29661016949152541</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="11"/>
+        <v>677.96610169491498</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="12"/>
+        <v>2966.101694915254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>-0.20338983050847456</v>
+      </c>
+      <c r="B54">
+        <v>-0.56355932203389825</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="7"/>
+        <v>-2033.8983050847455</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="8"/>
+        <v>-5635.5932203389821</v>
+      </c>
+      <c r="F54">
+        <v>-6.7796610169491525E-2</v>
+      </c>
+      <c r="G54">
+        <v>0.19067796610169491</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="9"/>
+        <v>-677.96610169491521</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="10"/>
+        <v>1906.7796610169491</v>
+      </c>
+      <c r="K54">
+        <v>6.7796610169491497E-2</v>
+      </c>
+      <c r="L54">
+        <v>0.19067796610169491</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="11"/>
+        <v>677.96610169491498</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="12"/>
+        <v>1906.7796610169491</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>-0.19067796610169491</v>
+      </c>
+      <c r="B55">
+        <v>-0.5</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="7"/>
+        <v>-1906.7796610169491</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="8"/>
+        <v>-5000</v>
+      </c>
+      <c r="F55">
+        <v>-6.7796610169491525E-2</v>
+      </c>
+      <c r="G55">
+        <v>-4.2372881355932202E-2</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="9"/>
+        <v>-677.96610169491521</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="10"/>
+        <v>-423.72881355932202</v>
+      </c>
+      <c r="K55">
+        <v>-6.7796610169491525E-2</v>
+      </c>
+      <c r="L55">
+        <v>0.19067796610169491</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="11"/>
+        <v>-677.96610169491521</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="12"/>
+        <v>1906.7796610169491</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>-3.8135593220338979E-2</v>
+      </c>
+      <c r="B56">
+        <v>-0.45338983050847453</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="7"/>
+        <v>-381.35593220338978</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="8"/>
+        <v>-4533.8983050847455</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>3.8135593220338979E-2</v>
+      </c>
+      <c r="B57">
+        <v>-0.45338983050847453</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="7"/>
+        <v>381.35593220338978</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="8"/>
+        <v>-4533.8983050847455</v>
+      </c>
+      <c r="F57" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>6.7796610169491497E-2</v>
+      </c>
+      <c r="G58">
+        <v>-4.2372881355932202E-2</v>
+      </c>
+      <c r="H58">
+        <f>10000*F58</f>
+        <v>677.96610169491498</v>
+      </c>
+      <c r="I58">
+        <f>10000*G58</f>
+        <v>-423.72881355932202</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0.40254237288135591</v>
+      </c>
+      <c r="M58">
+        <f>10000*K58</f>
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <f>10000*L58</f>
+        <v>4025.4237288135591</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>-5.084745762711864E-2</v>
+      </c>
+      <c r="H59">
+        <f t="shared" ref="H59:H62" si="13">10000*F59</f>
+        <v>10000</v>
+      </c>
+      <c r="I59">
+        <f t="shared" ref="I59:I62" si="14">10000*G59</f>
+        <v>-508.47457627118638</v>
+      </c>
+      <c r="K59">
+        <v>3.8135593220338979E-2</v>
+      </c>
+      <c r="L59">
+        <v>0.38983050847457623</v>
+      </c>
+      <c r="M59">
+        <f t="shared" ref="M59:M63" si="15">10000*K59</f>
+        <v>381.35593220338978</v>
+      </c>
+      <c r="N59">
+        <f t="shared" ref="N59:N63" si="16">10000*L59</f>
+        <v>3898.3050847457625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>-3.8135593220338979E-2</v>
+      </c>
+      <c r="B60">
+        <v>-0.45338983050847453</v>
+      </c>
+      <c r="C60">
+        <f>10000*A60</f>
+        <v>-381.35593220338978</v>
+      </c>
+      <c r="D60">
+        <f>10000*B60</f>
+        <v>-4533.8983050847455</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>5.084745762711864E-2</v>
+      </c>
+      <c r="L60">
+        <v>0.36016949152542371</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="15"/>
+        <v>508.47457627118638</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="16"/>
+        <v>3601.694915254237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>-5.084745762711864E-2</v>
+      </c>
+      <c r="B61">
+        <v>-0.29661016949152541</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ref="C61:C68" si="17">10000*A61</f>
+        <v>-508.47457627118638</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ref="D61:D68" si="18">10000*B61</f>
+        <v>-2966.101694915254</v>
+      </c>
+      <c r="F61">
+        <v>6.7796610169491497E-2</v>
+      </c>
+      <c r="G61">
+        <v>0.19067796610169491</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="13"/>
+        <v>677.96610169491498</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="14"/>
+        <v>1906.7796610169491</v>
+      </c>
+      <c r="K61">
+        <v>6.7796610169491525E-2</v>
+      </c>
+      <c r="L61">
+        <v>0.29661016949152541</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="15"/>
+        <v>677.96610169491521</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="16"/>
+        <v>2966.101694915254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>-6.7796610169491525E-2</v>
+      </c>
+      <c r="B62">
+        <v>-9.3220338983050849E-2</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="17"/>
+        <v>-677.96610169491521</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="18"/>
+        <v>-932.20338983050851</v>
+      </c>
+      <c r="F62">
+        <v>6.7796610169491497E-2</v>
+      </c>
+      <c r="G62">
+        <v>-4.2372881355932202E-2</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="13"/>
+        <v>677.96610169491498</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="14"/>
+        <v>-423.72881355932202</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0.29661016949152541</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="16"/>
+        <v>2966.101694915254</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>-6.7796610169491525E-2</v>
+      </c>
+      <c r="B63">
+        <v>-4.2372881355932202E-2</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="17"/>
+        <v>-677.96610169491521</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="18"/>
+        <v>-423.72881355932202</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0.40254237288135591</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="16"/>
+        <v>4025.4237288135591</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>6.7796610169491497E-2</v>
+      </c>
+      <c r="B64">
+        <v>-4.2372881355932202E-2</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="17"/>
+        <v>677.96610169491498</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="18"/>
+        <v>-423.72881355932202</v>
+      </c>
+      <c r="F64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>6.7796610169491497E-2</v>
+      </c>
+      <c r="B65">
+        <v>-9.3220338983050849E-2</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="17"/>
+        <v>677.96610169491498</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="18"/>
+        <v>-932.20338983050851</v>
+      </c>
+      <c r="F65">
+        <v>-6.7796610169491525E-2</v>
+      </c>
+      <c r="G65">
+        <v>0.19067796610169491</v>
+      </c>
+      <c r="H65">
+        <f>10000*F65</f>
+        <v>-677.96610169491521</v>
+      </c>
+      <c r="I65">
+        <f>10000*G65</f>
+        <v>1906.7796610169491</v>
+      </c>
+      <c r="K65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>5.0847457627118599E-2</v>
+      </c>
+      <c r="B66">
+        <v>-0.29661016949152541</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="17"/>
+        <v>508.47457627118598</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="18"/>
+        <v>-2966.101694915254</v>
+      </c>
+      <c r="F66">
+        <v>-6.7796610169491525E-2</v>
+      </c>
+      <c r="G66">
+        <v>-4.2372881355932202E-2</v>
+      </c>
+      <c r="H66">
+        <f t="shared" ref="H66:H69" si="19">10000*F66</f>
+        <v>-677.96610169491521</v>
+      </c>
+      <c r="I66">
+        <f t="shared" ref="I66:I69" si="20">10000*G66</f>
+        <v>-423.72881355932202</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0.40254237288135591</v>
+      </c>
+      <c r="M66">
+        <f>10000*K66</f>
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <f>10000*L66</f>
+        <v>4025.4237288135591</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>3.8135593220338999E-2</v>
+      </c>
+      <c r="B67">
+        <v>-0.45338983050847453</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="17"/>
+        <v>381.35593220339001</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="18"/>
+        <v>-4533.8983050847455</v>
+      </c>
+      <c r="F67">
+        <v>6.7796610169491497E-2</v>
+      </c>
+      <c r="G67">
+        <v>-4.2372881355932202E-2</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="19"/>
+        <v>677.96610169491498</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="20"/>
+        <v>-423.72881355932202</v>
+      </c>
+      <c r="K67">
+        <v>-3.8135593220338999E-2</v>
+      </c>
+      <c r="L67">
+        <v>0.38983050847457623</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ref="M67:M71" si="21">10000*K67</f>
+        <v>-381.35593220339001</v>
+      </c>
+      <c r="N67">
+        <f t="shared" ref="N67:N71" si="22">10000*L67</f>
+        <v>3898.3050847457625</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>-3.8135593220338979E-2</v>
+      </c>
+      <c r="B68">
+        <v>-0.45338983050847453</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="17"/>
+        <v>-381.35593220338978</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="18"/>
+        <v>-4533.8983050847455</v>
+      </c>
+      <c r="F68">
+        <v>6.7796610169491497E-2</v>
+      </c>
+      <c r="G68">
+        <v>0.19067796610169491</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="19"/>
+        <v>677.96610169491498</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="20"/>
+        <v>1906.7796610169491</v>
+      </c>
+      <c r="K68">
+        <v>-5.0847457627118599E-2</v>
+      </c>
+      <c r="L68">
+        <v>0.36016949152542371</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="21"/>
+        <v>-508.47457627118598</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="22"/>
+        <v>3601.694915254237</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>-6.7796610169491525E-2</v>
+      </c>
+      <c r="G69">
+        <v>0.19067796610169491</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="19"/>
+        <v>-677.96610169491521</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="20"/>
+        <v>1906.7796610169491</v>
+      </c>
+      <c r="K69">
+        <v>-6.7796610169491497E-2</v>
+      </c>
+      <c r="L69">
+        <v>0.29661016949152541</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="21"/>
+        <v>-677.96610169491498</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="22"/>
+        <v>2966.101694915254</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0.29661016949152541</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="22"/>
+        <v>2966.101694915254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0.40254237288135591</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="22"/>
+        <v>4025.4237288135591</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N75">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="L13:N22">
     <sortCondition descending="1" ref="N13:N22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/me264.xlsx
+++ b/me264.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="40">
   <si>
     <t>contorno ref</t>
   </si>
@@ -105,6 +105,45 @@
   </si>
   <si>
     <t>cockpit - esq</t>
+  </si>
+  <si>
+    <t>motor 1 - dir ponta</t>
+  </si>
+  <si>
+    <t>motor 1 - dir corpo</t>
+  </si>
+  <si>
+    <t>motor 2 - dir ponta</t>
+  </si>
+  <si>
+    <t>motor 2 - dir corpo</t>
+  </si>
+  <si>
+    <t>detalhe motor 1 1 dir</t>
+  </si>
+  <si>
+    <t>detalhe motor 1 2 dir</t>
+  </si>
+  <si>
+    <t>detalhe motor 1 3 dir</t>
+  </si>
+  <si>
+    <t>detalhe motor 1 4 dir</t>
+  </si>
+  <si>
+    <t>detalhe motor 2 1 dir</t>
+  </si>
+  <si>
+    <t>detalhe motor 2 2 dir</t>
+  </si>
+  <si>
+    <t>detalhe motor 2 3 dir</t>
+  </si>
+  <si>
+    <t>detalhe motor 2 4 dir</t>
+  </si>
+  <si>
+    <t>cockpit detalhe 1</t>
   </si>
 </sst>
 </file>
@@ -157,1012 +196,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="2.1178915135608004E-3"/>
-          <c:y val="0"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.405555555555556E-2"/>
-          <c:y val="0.19721055701370663"/>
-          <c:w val="0.90349300087489059"/>
-          <c:h val="0.77736111111111106"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$L$2:$L$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>6.7796610169491525E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.7796610169491525E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.7796610169491525E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.7796610169491525E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.084745762711864E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.8135593220338979E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.19067796610169491</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.20338983050847456</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.20338983050847456</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.19067796610169491</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-3.8135593220338979E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-5.084745762711864E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-6.7796610169491525E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-6.7796610169491525E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-6.7796610169491525E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-6.7796610169491525E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$M$2:$M$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.29661016949152541</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19067796610169491</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-5.084745762711864E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-4.2372881355932202E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-9.3220338983050849E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.29661016949152541</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.45338983050847453</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.56355932203389825</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.56355932203389825</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.45338983050847453</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.29661016949152541</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-9.3220338983050849E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-4.2372881355932202E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-5.084745762711864E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.19067796610169491</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.29661016949152541</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="285071968"/>
-        <c:axId val="285077456"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="285071968"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="285077456"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="285077456"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="285071968"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1428,15 +461,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U75"/>
+  <dimension ref="A1:V93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P67" sqref="P67"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="U40" sqref="U40:V41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1458,7 +491,7 @@
         <v>cockpit ref</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.6</v>
       </c>
@@ -1502,7 +535,7 @@
         <v>0.40254237288135591</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.6</v>
       </c>
@@ -1546,7 +579,7 @@
         <v>0.38983050847457623</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>23.6</v>
       </c>
@@ -1576,7 +609,7 @@
         <v>0.36016949152542371</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23.6</v>
       </c>
@@ -1613,7 +646,7 @@
         <v>0.29661016949152541</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.6</v>
       </c>
@@ -1654,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.6</v>
       </c>
@@ -1705,7 +738,7 @@
         <v>0.78431372549019607</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.2</v>
       </c>
@@ -1721,7 +754,7 @@
         <v>-0.29661016949152541</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.9</v>
       </c>
@@ -1751,7 +784,7 @@
         <v>cockpit detalhe</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4.5</v>
       </c>
@@ -1794,8 +827,16 @@
         <f t="shared" si="6"/>
         <v>0.38983050847457623</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <f>10000*S10</f>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f>10000*T10</f>
+        <v>3898.3050847457625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4.8</v>
       </c>
@@ -1838,8 +879,16 @@
         <f t="shared" si="6"/>
         <v>0.38983050847457623</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U11">
+        <f>10000*S11</f>
+        <v>381.35593220338978</v>
+      </c>
+      <c r="V11">
+        <f>10000*T11</f>
+        <v>3898.3050847457625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1865,7 +914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1886,7 +935,7 @@
         <v>detalhe motor 1 4</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>5.6</v>
       </c>
@@ -1915,7 +964,7 @@
         <v>cockpit detalhe</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>5.9</v>
       </c>
@@ -1950,8 +999,16 @@
         <f t="shared" si="6"/>
         <v>0.36016949152542371</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <f>10000*S15</f>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f>10000*T15</f>
+        <v>3601.694915254237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1975,8 +1032,16 @@
         <f t="shared" si="6"/>
         <v>0.36016949152542371</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16">
+        <f>10000*S16</f>
+        <v>508.47457627118638</v>
+      </c>
+      <c r="V16">
+        <f>10000*T16</f>
+        <v>3601.694915254237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2.9</v>
       </c>
@@ -2009,7 +1074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2.9</v>
       </c>
@@ -2037,7 +1102,7 @@
         <v>0.2288135593220339</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3.2</v>
       </c>
@@ -2072,7 +1137,7 @@
         <v>cockpit detalhe</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3.8</v>
       </c>
@@ -2099,8 +1164,16 @@
         <f t="shared" si="6"/>
         <v>0.33050847457627114</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20">
+        <f>10000*S20</f>
+        <v>593.22033898305074</v>
+      </c>
+      <c r="V20">
+        <f>10000*T20</f>
+        <v>3305.0847457627115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4.4000000000000004</v>
       </c>
@@ -2134,8 +1207,16 @@
         <f t="shared" si="6"/>
         <v>0.33050847457627114</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21">
+        <f>10000*S21</f>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f>10000*T21</f>
+        <v>3305.0847457627115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4.7</v>
       </c>
@@ -2169,7 +1250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4.7</v>
       </c>
@@ -2191,7 +1272,7 @@
         <v>0.2288135593220339</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -2206,7 +1287,7 @@
         <v>cockpit detalhe</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>79</v>
       </c>
@@ -2243,8 +1324,16 @@
         <f t="shared" si="6"/>
         <v>0.40254237288135591</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U25">
+        <f>10000*S25</f>
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <f>10000*T25</f>
+        <v>4025.4237288135591</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E26">
         <v>9.4</v>
       </c>
@@ -2279,8 +1368,16 @@
         <f t="shared" si="6"/>
         <v>0.36016949152542371</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U26">
+        <f>10000*S26</f>
+        <v>127.11864406779659</v>
+      </c>
+      <c r="V26">
+        <f>10000*T26</f>
+        <v>3601.694915254237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E27">
         <v>9.6999999999999993</v>
       </c>
@@ -2314,7 +1411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2325,7 +1422,7 @@
         <v>0.30084745762711862</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7.2</v>
       </c>
@@ -2353,7 +1450,7 @@
         <v>cockpit detalhe</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7.2</v>
       </c>
@@ -2394,8 +1491,16 @@
         <f t="shared" si="6"/>
         <v>0.36016949152542371</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U30">
+        <f>10000*S30</f>
+        <v>127.11864406779659</v>
+      </c>
+      <c r="V30">
+        <f>10000*T30</f>
+        <v>3601.694915254237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>7.5</v>
       </c>
@@ -2436,8 +1541,16 @@
         <f t="shared" si="6"/>
         <v>0.29661016949152541</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U31">
+        <f>10000*S31</f>
+        <v>211.86440677966101</v>
+      </c>
+      <c r="V31">
+        <f>10000*T31</f>
+        <v>2966.101694915254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>8.1</v>
       </c>
@@ -2460,7 +1573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8.6999999999999993</v>
       </c>
@@ -2489,7 +1602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -2504,7 +1617,7 @@
         <v>cockpit detalhe</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9</v>
       </c>
@@ -2532,8 +1645,16 @@
         <f t="shared" si="6"/>
         <v>0.40254237288135591</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U35">
+        <f>10000*S35</f>
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <f>10000*T35</f>
+        <v>4025.4237288135591</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -2568,8 +1689,16 @@
         <f t="shared" si="6"/>
         <v>0.34322033898305082</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U36">
+        <f>10000*S36</f>
+        <v>254.23728813559319</v>
+      </c>
+      <c r="V36">
+        <f>10000*T36</f>
+        <v>3432.2033898305081</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>79</v>
       </c>
@@ -2612,7 +1741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>1</v>
       </c>
@@ -2632,7 +1761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H39" t="s">
         <v>14</v>
       </c>
@@ -2647,7 +1776,7 @@
         <v>cockpit detalhe</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H40">
         <v>0.6</v>
       </c>
@@ -2668,8 +1797,16 @@
         <f t="shared" si="6"/>
         <v>0.34322033898305082</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U40">
+        <f>10000*S40</f>
+        <v>254.23728813559319</v>
+      </c>
+      <c r="V40">
+        <f>10000*T40</f>
+        <v>3432.2033898305081</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H41">
         <v>1</v>
       </c>
@@ -2690,8 +1827,16 @@
         <f t="shared" si="6"/>
         <v>0.29661016949152541</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U41">
+        <f>10000*S41</f>
+        <v>423.72881355932202</v>
+      </c>
+      <c r="V41">
+        <f>10000*T41</f>
+        <v>2966.101694915254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
         <v>1</v>
       </c>
@@ -2713,7 +1858,7 @@
         <v>preto</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L43">
         <v>0.38135593220338981</v>
       </c>
@@ -2721,12 +1866,12 @@
         <v>0.11864406779661016</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L45">
         <v>0.30980392156862746</v>
       </c>
@@ -3250,7 +2395,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>6.7796610169491497E-2</v>
       </c>
@@ -3283,7 +2428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5.0847457627118599E-2</v>
       </c>
@@ -3327,7 +2472,7 @@
         <v>4025.4237288135591</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3.8135593220338999E-2</v>
       </c>
@@ -3371,7 +2516,7 @@
         <v>3898.3050847457625</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-3.8135593220338979E-2</v>
       </c>
@@ -3415,7 +2560,7 @@
         <v>3601.694915254237</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F69">
         <v>-6.7796610169491525E-2</v>
       </c>
@@ -3445,7 +2590,7 @@
         <v>2966.101694915254</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K70">
         <v>0</v>
       </c>
@@ -3461,7 +2606,7 @@
         <v>2966.101694915254</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K71">
         <v>0</v>
       </c>
@@ -3477,9 +2622,588 @@
         <v>4025.4237288135591</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>27</v>
+      </c>
+      <c r="F73" t="s">
+        <v>29</v>
+      </c>
+      <c r="K73" t="s">
+        <v>31</v>
+      </c>
+      <c r="P73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0.13559322033898305</v>
+      </c>
+      <c r="B74">
+        <v>0.26271186440677963</v>
+      </c>
+      <c r="C74">
+        <f>10000*A74</f>
+        <v>1355.9322033898304</v>
+      </c>
+      <c r="D74">
+        <f>10000*B74</f>
+        <v>2627.1186440677961</v>
+      </c>
+      <c r="F74">
+        <v>0.31779661016949201</v>
+      </c>
+      <c r="G74">
+        <v>0.2288135593220339</v>
+      </c>
+      <c r="H74">
+        <f>10000*F74</f>
+        <v>3177.9661016949203</v>
+      </c>
+      <c r="I74">
+        <f>10000*G74</f>
+        <v>2288.1355932203392</v>
+      </c>
+      <c r="K74">
+        <v>0.1059322033898305</v>
+      </c>
+      <c r="L74">
+        <v>0.26271186440677963</v>
+      </c>
+      <c r="M74">
+        <f>10000*K74</f>
+        <v>1059.3220338983051</v>
+      </c>
+      <c r="N74">
+        <f>10000*L74</f>
+        <v>2627.1186440677961</v>
+      </c>
+      <c r="P74">
+        <v>0.28813559322033894</v>
+      </c>
+      <c r="Q74">
+        <v>0.2288135593220339</v>
+      </c>
+      <c r="R74">
+        <f>10000*P74</f>
+        <v>2881.3559322033893</v>
+      </c>
+      <c r="S74">
+        <f>10000*Q74</f>
+        <v>2288.1355932203392</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0.16101694915254236</v>
+      </c>
+      <c r="B75">
+        <v>0.30084745762711862</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ref="C75:C77" si="23">10000*A75</f>
+        <v>1610.1694915254236</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ref="D75:D77" si="24">10000*B75</f>
+        <v>3008.4745762711864</v>
+      </c>
+      <c r="F75">
+        <v>0.34322033898305082</v>
+      </c>
+      <c r="G75">
+        <v>0.26694915254237284</v>
+      </c>
+      <c r="H75">
+        <f t="shared" ref="H75:H77" si="25">10000*F75</f>
+        <v>3432.2033898305081</v>
+      </c>
+      <c r="I75">
+        <f t="shared" ref="I75:I77" si="26">10000*G75</f>
+        <v>2669.4915254237285</v>
+      </c>
+      <c r="K75">
+        <v>0.11864406779661016</v>
+      </c>
+      <c r="L75">
+        <v>0.26271186440677963</v>
+      </c>
+      <c r="M75">
+        <f>10000*K75</f>
+        <v>1186.4406779661015</v>
+      </c>
       <c r="N75">
-        <v>4</v>
+        <f>10000*L75</f>
+        <v>2627.1186440677961</v>
+      </c>
+      <c r="P75">
+        <v>0.27542372881355931</v>
+      </c>
+      <c r="Q75">
+        <v>0.2288135593220339</v>
+      </c>
+      <c r="R75">
+        <f>10000*P75</f>
+        <v>2754.2372881355932</v>
+      </c>
+      <c r="S75">
+        <f>10000*Q75</f>
+        <v>2288.1355932203392</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0.1864406779661017</v>
+      </c>
+      <c r="B76">
+        <v>0.26271186440677963</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="23"/>
+        <v>1864.406779661017</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="24"/>
+        <v>2627.1186440677961</v>
+      </c>
+      <c r="F76">
+        <v>0.36864406779661013</v>
+      </c>
+      <c r="G76">
+        <v>0.2288135593220339</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="25"/>
+        <v>3686.4406779661012</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="26"/>
+        <v>2288.1355932203392</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0.13559322033898305</v>
+      </c>
+      <c r="B77">
+        <v>0.26271186440677963</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="23"/>
+        <v>1355.9322033898304</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="24"/>
+        <v>2627.1186440677961</v>
+      </c>
+      <c r="F77">
+        <v>0.31779661016949201</v>
+      </c>
+      <c r="G77">
+        <v>0.2288135593220339</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="25"/>
+        <v>3177.9661016949203</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="26"/>
+        <v>2288.1355932203392</v>
+      </c>
+      <c r="K77" t="s">
+        <v>32</v>
+      </c>
+      <c r="P77" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <v>0.1271186440677966</v>
+      </c>
+      <c r="L78">
+        <v>0.26271186440677963</v>
+      </c>
+      <c r="M78">
+        <f>10000*K78</f>
+        <v>1271.1864406779659</v>
+      </c>
+      <c r="N78">
+        <f>10000*L78</f>
+        <v>2627.1186440677961</v>
+      </c>
+      <c r="P78">
+        <v>0.26694915254237284</v>
+      </c>
+      <c r="Q78">
+        <v>0.2288135593220339</v>
+      </c>
+      <c r="R78">
+        <f>10000*P78</f>
+        <v>2669.4915254237285</v>
+      </c>
+      <c r="S78">
+        <f>10000*Q78</f>
+        <v>2288.1355932203392</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>28</v>
+      </c>
+      <c r="F79" t="s">
+        <v>30</v>
+      </c>
+      <c r="K79">
+        <v>0.13983050847457626</v>
+      </c>
+      <c r="L79">
+        <v>0.26271186440677963</v>
+      </c>
+      <c r="M79">
+        <f>10000*K79</f>
+        <v>1398.3050847457625</v>
+      </c>
+      <c r="N79">
+        <f>10000*L79</f>
+        <v>2627.1186440677961</v>
+      </c>
+      <c r="P79">
+        <v>0.25423728813559321</v>
+      </c>
+      <c r="Q79">
+        <v>0.2288135593220339</v>
+      </c>
+      <c r="R79">
+        <f>10000*P79</f>
+        <v>2542.3728813559319</v>
+      </c>
+      <c r="S79">
+        <f>10000*Q79</f>
+        <v>2288.1355932203392</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0.12288135593220338</v>
+      </c>
+      <c r="B80">
+        <v>0.16949152542372881</v>
+      </c>
+      <c r="C80">
+        <f>10000*A80</f>
+        <v>1228.8135593220338</v>
+      </c>
+      <c r="D80">
+        <f>10000*B80</f>
+        <v>1694.9152542372881</v>
+      </c>
+      <c r="F80">
+        <v>0.30508474576271183</v>
+      </c>
+      <c r="G80">
+        <v>0.13559322033898305</v>
+      </c>
+      <c r="H80">
+        <f>10000*F80</f>
+        <v>3050.8474576271183</v>
+      </c>
+      <c r="I80">
+        <f>10000*G80</f>
+        <v>1355.9322033898304</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0.12288135593220338</v>
+      </c>
+      <c r="B81">
+        <v>0.26271186440677963</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ref="C81:C84" si="27">10000*A81</f>
+        <v>1228.8135593220338</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ref="D81:D84" si="28">10000*B81</f>
+        <v>2627.1186440677961</v>
+      </c>
+      <c r="F81">
+        <v>0.30508474576271183</v>
+      </c>
+      <c r="G81">
+        <v>0.2288135593220339</v>
+      </c>
+      <c r="H81">
+        <f t="shared" ref="H81:H84" si="29">10000*F81</f>
+        <v>3050.8474576271183</v>
+      </c>
+      <c r="I81">
+        <f t="shared" ref="I81:I84" si="30">10000*G81</f>
+        <v>2288.1355932203392</v>
+      </c>
+      <c r="K81" t="s">
+        <v>33</v>
+      </c>
+      <c r="P81" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.19915254237288135</v>
+      </c>
+      <c r="B82">
+        <v>0.26271186440677963</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="27"/>
+        <v>1991.5254237288136</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="28"/>
+        <v>2627.1186440677961</v>
+      </c>
+      <c r="F82">
+        <v>0.38135593220338981</v>
+      </c>
+      <c r="G82">
+        <v>0.2288135593220339</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="29"/>
+        <v>3813.5593220338983</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="30"/>
+        <v>2288.1355932203392</v>
+      </c>
+      <c r="K82">
+        <v>0.21610169491525422</v>
+      </c>
+      <c r="L82">
+        <v>0.26271186440677963</v>
+      </c>
+      <c r="M82">
+        <f>10000*K82</f>
+        <v>2161.0169491525421</v>
+      </c>
+      <c r="N82">
+        <f>10000*L82</f>
+        <v>2627.1186440677961</v>
+      </c>
+      <c r="P82">
+        <v>0.39830508474576271</v>
+      </c>
+      <c r="Q82">
+        <v>0.2288135593220339</v>
+      </c>
+      <c r="R82">
+        <f>10000*P82</f>
+        <v>3983.0508474576272</v>
+      </c>
+      <c r="S82">
+        <f>10000*Q82</f>
+        <v>2288.1355932203392</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0.19915254237288135</v>
+      </c>
+      <c r="B83">
+        <v>0.15254237288135591</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="27"/>
+        <v>1991.5254237288136</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="28"/>
+        <v>1525.4237288135591</v>
+      </c>
+      <c r="F83">
+        <v>0.38135593220338981</v>
+      </c>
+      <c r="G83">
+        <v>0.11864406779661016</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="29"/>
+        <v>3813.5593220338983</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="30"/>
+        <v>1186.4406779661015</v>
+      </c>
+      <c r="K83">
+        <v>0.2288135593220339</v>
+      </c>
+      <c r="L83">
+        <v>0.26271186440677963</v>
+      </c>
+      <c r="M83">
+        <f>10000*K83</f>
+        <v>2288.1355932203392</v>
+      </c>
+      <c r="N83">
+        <f>10000*L83</f>
+        <v>2627.1186440677961</v>
+      </c>
+      <c r="P83">
+        <v>0.41101694915254233</v>
+      </c>
+      <c r="Q83">
+        <v>0.2288135593220339</v>
+      </c>
+      <c r="R83">
+        <f>10000*P83</f>
+        <v>4110.1694915254229</v>
+      </c>
+      <c r="S83">
+        <f>10000*Q83</f>
+        <v>2288.1355932203392</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0.12288135593220338</v>
+      </c>
+      <c r="B84">
+        <v>0.16949152542372881</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="27"/>
+        <v>1228.8135593220338</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="28"/>
+        <v>1694.9152542372881</v>
+      </c>
+      <c r="F84">
+        <v>0.30508474576271183</v>
+      </c>
+      <c r="G84">
+        <v>0.13559322033898305</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="29"/>
+        <v>3050.8474576271183</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="30"/>
+        <v>1355.9322033898304</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K85" t="s">
+        <v>34</v>
+      </c>
+      <c r="P85" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <v>0.23728813559322032</v>
+      </c>
+      <c r="L86">
+        <v>0.26271186440677963</v>
+      </c>
+      <c r="M86">
+        <f>10000*K86</f>
+        <v>2372.881355932203</v>
+      </c>
+      <c r="N86">
+        <f>10000*L86</f>
+        <v>2627.1186440677961</v>
+      </c>
+      <c r="P86">
+        <v>0.41949152542372881</v>
+      </c>
+      <c r="Q86">
+        <v>0.2288135593220339</v>
+      </c>
+      <c r="R86">
+        <f>10000*P86</f>
+        <v>4194.9152542372876</v>
+      </c>
+      <c r="S86">
+        <f>10000*Q86</f>
+        <v>2288.1355932203392</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <v>0.25</v>
+      </c>
+      <c r="L87">
+        <v>0.26271186440677963</v>
+      </c>
+      <c r="M87">
+        <f>10000*K87</f>
+        <v>2500</v>
+      </c>
+      <c r="N87">
+        <f>10000*L87</f>
+        <v>2627.1186440677961</v>
+      </c>
+      <c r="P87">
+        <v>0.43220338983050843</v>
+      </c>
+      <c r="Q87">
+        <v>0.2288135593220339</v>
+      </c>
+      <c r="R87">
+        <f>10000*P87</f>
+        <v>4322.0338983050842</v>
+      </c>
+      <c r="S87">
+        <f>10000*Q87</f>
+        <v>2288.1355932203392</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>-0.55932203389830504</v>
+      </c>
+      <c r="C90">
+        <f>10000*A90</f>
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <f>10000*B90</f>
+        <v>-5593.2203389830502</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>-0.44067796610169491</v>
+      </c>
+      <c r="C91">
+        <f>10000*A91</f>
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <f>10000*B91</f>
+        <v>-4406.7796610169489</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3487,6 +3211,5 @@
     <sortCondition descending="1" ref="N13:N22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/me264.xlsx
+++ b/me264.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Visual Studio 2013\Projects\CG-Tp1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CEFET\8o Periodo\Computacao Grafica\CG-Tp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -199,9 +199,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -239,7 +239,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -311,7 +311,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="U40" sqref="U40:V41"/>
+    <sheetView tabSelected="1" topLeftCell="F55" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66:K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="E2">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F2">
         <v>6.2</v>
@@ -520,7 +520,7 @@
       </c>
       <c r="P2">
         <f t="shared" si="0"/>
-        <v>0.1059322033898305</v>
+        <v>9.3220338983050849E-2</v>
       </c>
       <c r="Q2">
         <f t="shared" si="0"/>
@@ -543,7 +543,7 @@
         <v>4.5</v>
       </c>
       <c r="E3">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="F3">
         <v>6.2</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P37" si="3">E3/23.6</f>
-        <v>0.11864406779661016</v>
+        <v>0.1059322033898305</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q37" si="4">F3/23.6</f>
@@ -654,7 +654,7 @@
         <v>-1</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>6.2</v>
@@ -672,7 +672,7 @@
       </c>
       <c r="P6">
         <f t="shared" si="3"/>
-        <v>0.1271186440677966</v>
+        <v>8.4745762711864403E-2</v>
       </c>
       <c r="Q6">
         <f t="shared" si="4"/>
@@ -695,7 +695,7 @@
         <v>-2.2000000000000002</v>
       </c>
       <c r="E7">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="F7">
         <v>6.2</v>
@@ -719,7 +719,7 @@
       </c>
       <c r="P7">
         <f t="shared" si="3"/>
-        <v>0.13983050847457626</v>
+        <v>7.2033898305084734E-2</v>
       </c>
       <c r="Q7">
         <f t="shared" si="4"/>
@@ -2666,14 +2666,15 @@
         <v>2288.1355932203392</v>
       </c>
       <c r="K74">
-        <v>0.1059322033898305</v>
+        <f>E2/23.6</f>
+        <v>9.3220338983050849E-2</v>
       </c>
       <c r="L74">
         <v>0.26271186440677963</v>
       </c>
       <c r="M74">
         <f>10000*K74</f>
-        <v>1059.3220338983051</v>
+        <v>932.20338983050851</v>
       </c>
       <c r="N74">
         <f>10000*L74</f>
@@ -2724,14 +2725,15 @@
         <v>2669.4915254237285</v>
       </c>
       <c r="K75">
-        <v>0.11864406779661016</v>
+        <f>E3/23.6</f>
+        <v>0.1059322033898305</v>
       </c>
       <c r="L75">
         <v>0.26271186440677963</v>
       </c>
       <c r="M75">
         <f>10000*K75</f>
-        <v>1186.4406779661015</v>
+        <v>1059.3220338983051</v>
       </c>
       <c r="N75">
         <f>10000*L75</f>
@@ -2820,14 +2822,15 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K78">
-        <v>0.1271186440677966</v>
+        <f>E6/23.6</f>
+        <v>8.4745762711864403E-2</v>
       </c>
       <c r="L78">
         <v>0.26271186440677963</v>
       </c>
       <c r="M78">
         <f>10000*K78</f>
-        <v>1271.1864406779659</v>
+        <v>847.45762711864404</v>
       </c>
       <c r="N78">
         <f>10000*L78</f>
@@ -2856,14 +2859,15 @@
         <v>30</v>
       </c>
       <c r="K79">
-        <v>0.13983050847457626</v>
+        <f>E7/23.6</f>
+        <v>7.2033898305084734E-2</v>
       </c>
       <c r="L79">
         <v>0.26271186440677963</v>
       </c>
       <c r="M79">
         <f>10000*K79</f>
-        <v>1398.3050847457625</v>
+        <v>720.33898305084733</v>
       </c>
       <c r="N79">
         <f>10000*L79</f>
